--- a/统计文档/统计二次项个数.xlsx
+++ b/统计文档/统计二次项个数.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuch\Desktop\tsp\统计文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIU\Desktop\tsp\统计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23F846-21F4-426A-B67C-36483905B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1091C83E-080B-4022-AF72-BD13DDC88D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>完全图中的二次项个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +51,10 @@
   </si>
   <si>
     <t>seg中的二次项个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nei-seg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2898,16 +2913,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3198,20 +3213,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.4140625" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3224,8 +3239,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -3238,8 +3256,12 @@
       <c r="D2">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3252,8 +3274,12 @@
       <c r="D3">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -3266,8 +3292,12 @@
       <c r="D4">
         <v>574</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -3280,8 +3310,12 @@
       <c r="D5">
         <v>880</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -3294,8 +3328,12 @@
       <c r="D6">
         <v>1278</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3308,8 +3346,12 @@
       <c r="D7">
         <v>1780</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>11</v>
       </c>
@@ -3322,8 +3364,12 @@
       <c r="D8">
         <v>2310</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>12</v>
       </c>
@@ -3336,8 +3382,12 @@
       <c r="D9">
         <v>3024</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13</v>
       </c>
@@ -3350,8 +3400,12 @@
       <c r="D10">
         <v>3874</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14</v>
       </c>
@@ -3364,8 +3418,12 @@
       <c r="D11">
         <v>4872</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
@@ -3378,8 +3436,12 @@
       <c r="D12">
         <v>5910</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -3392,8 +3454,12 @@
       <c r="D13">
         <v>7008</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
@@ -3406,8 +3472,12 @@
       <c r="D14">
         <v>8602</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>18</v>
       </c>
@@ -3420,8 +3490,12 @@
       <c r="D15">
         <v>10044</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -3434,8 +3508,12 @@
       <c r="D16">
         <v>11400</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -3448,8 +3526,12 @@
       <c r="D17">
         <v>13320</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
@@ -3462,8 +3544,12 @@
       <c r="D18">
         <v>15498</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -3476,8 +3562,12 @@
       <c r="D19">
         <v>17424</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23</v>
       </c>
@@ -3490,8 +3580,12 @@
       <c r="D20">
         <v>19918</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24</v>
       </c>
@@ -3504,8 +3598,12 @@
       <c r="D21">
         <v>22464</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25</v>
       </c>
@@ -3518,8 +3616,12 @@
       <c r="D22">
         <v>25300</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26</v>
       </c>
@@ -3532,8 +3634,12 @@
       <c r="D23">
         <v>28184</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
@@ -3546,8 +3652,12 @@
       <c r="D24">
         <v>30726</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>28</v>
       </c>
@@ -3560,8 +3670,12 @@
       <c r="D25">
         <v>33544</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>29</v>
       </c>
@@ -3574,8 +3688,12 @@
       <c r="D26">
         <v>38976</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -3588,8 +3706,12 @@
       <c r="D27">
         <v>41820</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -3602,8 +3724,12 @@
       <c r="D28">
         <v>45136</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>32</v>
       </c>
@@ -3616,8 +3742,12 @@
       <c r="D29">
         <v>48832</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>33</v>
       </c>
@@ -3630,8 +3760,12 @@
       <c r="D30">
         <v>54384</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>34</v>
       </c>
@@ -3644,8 +3778,12 @@
       <c r="D31">
         <v>58956</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>35</v>
       </c>
@@ -3658,8 +3796,12 @@
       <c r="D32">
         <v>63210</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>36</v>
       </c>
@@ -3672,8 +3814,12 @@
       <c r="D33">
         <v>69480</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>37</v>
       </c>
@@ -3686,8 +3832,12 @@
       <c r="D34">
         <v>73408</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>10434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>38</v>
       </c>
@@ -3700,8 +3850,12 @@
       <c r="D35">
         <v>81928</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>39</v>
       </c>
@@ -3714,8 +3868,12 @@
       <c r="D36">
         <v>87360</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
@@ -3728,8 +3886,12 @@
       <c r="D37">
         <v>91600</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>12640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41</v>
       </c>
@@ -3742,8 +3904,12 @@
       <c r="D38">
         <v>98728</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>12874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42</v>
       </c>
@@ -3756,8 +3922,12 @@
       <c r="D39">
         <v>104580</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>11844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>43</v>
       </c>
@@ -3770,8 +3940,12 @@
       <c r="D40">
         <v>112660</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>16426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>44</v>
       </c>
@@ -3784,8 +3958,12 @@
       <c r="D41">
         <v>120032</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>14696</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>45</v>
       </c>
@@ -3798,8 +3976,12 @@
       <c r="D42">
         <v>128160</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>13140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -3812,8 +3994,12 @@
       <c r="D43">
         <v>135608</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>17296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>47</v>
       </c>
@@ -3826,8 +4012,12 @@
       <c r="D44">
         <v>144196</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>18706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>48</v>
       </c>
@@ -3840,8 +4030,12 @@
       <c r="D45">
         <v>154752</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>24768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49</v>
       </c>
@@ -3854,8 +4048,12 @@
       <c r="D46">
         <v>163856</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>18130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
@@ -3868,8 +4066,12 @@
       <c r="D47">
         <v>172000</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>51</v>
       </c>
@@ -3882,8 +4084,12 @@
       <c r="D48">
         <v>180336</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>24684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>52</v>
       </c>
@@ -3896,8 +4102,12 @@
       <c r="D49">
         <v>193752</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>53</v>
       </c>
@@ -3910,8 +4120,12 @@
       <c r="D50">
         <v>201612</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>28620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>54</v>
       </c>
@@ -3924,8 +4138,12 @@
       <c r="D51">
         <v>213084</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>30564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>55</v>
       </c>
@@ -3938,8 +4156,12 @@
       <c r="D52">
         <v>222640</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>25850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
@@ -3952,8 +4174,12 @@
       <c r="D53">
         <v>235424</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>57</v>
       </c>
@@ -3966,8 +4192,12 @@
       <c r="D54">
         <v>249432</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>28842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -3980,8 +4210,12 @@
       <c r="D55">
         <v>260188</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>28884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>59</v>
       </c>
@@ -3994,8 +4228,12 @@
       <c r="D56">
         <v>272816</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>31742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -4008,8 +4246,12 @@
       <c r="D57">
         <v>286920</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>30840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>61</v>
       </c>
@@ -4022,8 +4264,12 @@
       <c r="D58">
         <v>302926</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>40748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>62</v>
       </c>
@@ -4036,8 +4282,12 @@
       <c r="D59">
         <v>310868</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>41788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>63</v>
       </c>
@@ -4050,8 +4300,12 @@
       <c r="D60">
         <v>328860</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>47376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>64</v>
       </c>
@@ -4064,8 +4318,12 @@
       <c r="D61">
         <v>346112</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>38912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>65</v>
       </c>
@@ -4078,8 +4336,12 @@
       <c r="D62">
         <v>358410</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>50830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>66</v>
       </c>
@@ -4092,8 +4354,12 @@
       <c r="D63">
         <v>372900</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>67</v>
       </c>
@@ -4106,8 +4372,12 @@
       <c r="D64">
         <v>391548</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>47302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>68</v>
       </c>
@@ -4120,8 +4390,12 @@
       <c r="D65">
         <v>408544</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>69</v>
       </c>
@@ -4134,8 +4408,12 @@
       <c r="D66">
         <v>424902</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>50508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>70</v>
       </c>
@@ -4148,8 +4426,12 @@
       <c r="D67">
         <v>444500</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f t="shared" ref="E67:E114" si="1">C67-D67</f>
+        <v>51240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>71</v>
       </c>
@@ -4162,8 +4444,12 @@
       <c r="D68">
         <v>457524</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>51688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>72</v>
       </c>
@@ -4176,8 +4462,12 @@
       <c r="D69">
         <v>479088</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>58896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>73</v>
       </c>
@@ -4190,8 +4480,12 @@
       <c r="D70">
         <v>495524</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>52560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>74</v>
       </c>
@@ -4204,8 +4498,12 @@
       <c r="D71">
         <v>518296</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>57424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>75</v>
       </c>
@@ -4218,8 +4516,12 @@
       <c r="D72">
         <v>536550</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>68550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>76</v>
       </c>
@@ -4232,8 +4534,12 @@
       <c r="D73">
         <v>554800</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>62472</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>77</v>
       </c>
@@ -4246,8 +4552,12 @@
       <c r="D74">
         <v>583506</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>68376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>78</v>
       </c>
@@ -4260,8 +4570,12 @@
       <c r="D75">
         <v>602316</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>66144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>79</v>
       </c>
@@ -4274,8 +4588,12 @@
       <c r="D76">
         <v>624416</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>65412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>80</v>
       </c>
@@ -4288,8 +4606,12 @@
       <c r="D77">
         <v>640640</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>66240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>81</v>
       </c>
@@ -4302,8 +4624,12 @@
       <c r="D78">
         <v>666954</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>82</v>
       </c>
@@ -4316,8 +4642,12 @@
       <c r="D79">
         <v>690440</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>67240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>83</v>
       </c>
@@ -4330,8 +4660,12 @@
       <c r="D80">
         <v>715128</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>62416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>84</v>
       </c>
@@ -4344,8 +4678,12 @@
       <c r="D81">
         <v>739536</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>70560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>85</v>
       </c>
@@ -4358,8 +4696,12 @@
       <c r="D82">
         <v>764830</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>82450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>86</v>
       </c>
@@ -4372,8 +4714,12 @@
       <c r="D83">
         <v>792920</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>89612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>87</v>
       </c>
@@ -4386,8 +4732,12 @@
       <c r="D84">
         <v>818496</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>87348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>88</v>
       </c>
@@ -4400,8 +4750,12 @@
       <c r="D85">
         <v>836704</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>85536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>89</v>
       </c>
@@ -4414,8 +4768,12 @@
       <c r="D86">
         <v>870064</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>83304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>90</v>
       </c>
@@ -4428,8 +4786,12 @@
       <c r="D87">
         <v>899100</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>92700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91</v>
       </c>
@@ -4442,8 +4804,12 @@
       <c r="D88">
         <v>934570</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>94094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>92</v>
       </c>
@@ -4456,8 +4822,12 @@
       <c r="D89">
         <v>958824</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>116840</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -4470,8 +4840,12 @@
       <c r="D90">
         <v>987288</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>108252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>94</v>
       </c>
@@ -4484,8 +4858,12 @@
       <c r="D91">
         <v>1013696</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>100392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>95</v>
       </c>
@@ -4498,8 +4876,12 @@
       <c r="D92">
         <v>1048040</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>106210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -4512,8 +4894,12 @@
       <c r="D93">
         <v>1084224</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>105792</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>97</v>
       </c>
@@ -4526,8 +4912,12 @@
       <c r="D94">
         <v>1114336</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>112520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>98</v>
       </c>
@@ -4540,8 +4930,12 @@
       <c r="D95">
         <v>1149540</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>114660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>99</v>
       </c>
@@ -4554,8 +4948,12 @@
       <c r="D96">
         <v>1182852</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>105930</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -4568,8 +4966,12 @@
       <c r="D97">
         <v>1218600</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>121400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -4582,8 +4984,12 @@
       <c r="D98">
         <v>1249976</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>130290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>102</v>
       </c>
@@ -4596,8 +5002,12 @@
       <c r="D99">
         <v>1282752</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>123420</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>103</v>
       </c>
@@ -4610,8 +5020,12 @@
       <c r="D100">
         <v>1314692</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>132046</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>104</v>
       </c>
@@ -4624,8 +5038,12 @@
       <c r="D101">
         <v>1355120</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>159744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>105</v>
       </c>
@@ -4638,8 +5056,12 @@
       <c r="D102">
         <v>1400490</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>140070</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>106</v>
       </c>
@@ -4652,8 +5074,12 @@
       <c r="D103">
         <v>1428032</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>113208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>107</v>
       </c>
@@ -4666,8 +5092,12 @@
       <c r="D104">
         <v>1476386</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>134392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>108</v>
       </c>
@@ -4680,8 +5110,12 @@
       <c r="D105">
         <v>1515888</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>159192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>109</v>
       </c>
@@ -4694,8 +5128,12 @@
       <c r="D106">
         <v>1555212</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>136904</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>110</v>
       </c>
@@ -4708,8 +5146,12 @@
       <c r="D107">
         <v>1599620</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>147840</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>111</v>
       </c>
@@ -4722,8 +5164,12 @@
       <c r="D108">
         <v>1633920</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>171384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>112</v>
       </c>
@@ -4736,8 +5182,12 @@
       <c r="D109">
         <v>1683360</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>148512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>113</v>
       </c>
@@ -4750,8 +5200,12 @@
       <c r="D110">
         <v>1726866</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>148708</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>114</v>
       </c>
@@ -4764,8 +5218,12 @@
       <c r="D111">
         <v>1765860</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>156180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>115</v>
       </c>
@@ -4778,8 +5236,12 @@
       <c r="D112">
         <v>1808950</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>151570</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>116</v>
       </c>
@@ -4792,8 +5254,12 @@
       <c r="D113">
         <v>1854376</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>167736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>117</v>
       </c>
@@ -4806,8 +5272,12 @@
       <c r="D114">
         <v>1905930</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>157014</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118</v>
       </c>
@@ -4818,7 +5288,7 @@
         <v>2142644</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>119</v>
       </c>
@@ -4829,7 +5299,7 @@
         <v>2176034</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>120</v>
       </c>
@@ -4840,7 +5310,7 @@
         <v>2229840</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>121</v>
       </c>
@@ -4851,7 +5321,7 @@
         <v>2267782</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>122</v>
       </c>
@@ -4862,7 +5332,7 @@
         <v>2328492</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>123</v>
       </c>
@@ -4873,7 +5343,7 @@
         <v>2380050</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>124</v>
       </c>
@@ -4884,7 +5354,7 @@
         <v>2436352</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>125</v>
       </c>
@@ -4895,7 +5365,7 @@
         <v>2483500</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>126</v>
       </c>
@@ -4906,7 +5376,7 @@
         <v>2557548</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>127</v>
       </c>
@@ -4917,7 +5387,7 @@
         <v>2644140</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>128</v>
       </c>
@@ -4928,7 +5398,7 @@
         <v>2636032</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>129</v>
       </c>
@@ -4939,7 +5409,7 @@
         <v>2777886</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>130</v>
       </c>
@@ -4950,7 +5420,7 @@
         <v>2836600</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>131</v>
       </c>
@@ -4961,7 +5431,7 @@
         <v>2852918</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>132</v>
       </c>
@@ -4972,7 +5442,7 @@
         <v>2933040</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>133</v>
       </c>
@@ -4983,7 +5453,7 @@
         <v>2989574</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>134</v>
       </c>
@@ -4994,7 +5464,7 @@
         <v>3054932</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>135</v>
       </c>
@@ -5005,7 +5475,7 @@
         <v>3117150</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>136</v>
       </c>
@@ -5013,7 +5483,7 @@
         <v>4993920</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>137</v>
       </c>
@@ -5021,7 +5491,7 @@
         <v>5105168</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>138</v>
       </c>
@@ -5029,7 +5499,7 @@
         <v>5218056</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>139</v>
       </c>
@@ -5037,7 +5507,7 @@
         <v>5332596</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>140</v>
       </c>
@@ -5045,7 +5515,7 @@
         <v>5448800</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>141</v>
       </c>
@@ -5053,7 +5523,7 @@
         <v>5566680</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>142</v>
       </c>
@@ -5061,7 +5531,7 @@
         <v>5686248</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>143</v>
       </c>
@@ -5069,7 +5539,7 @@
         <v>5807516</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>144</v>
       </c>
@@ -5077,7 +5547,7 @@
         <v>5930496</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>145</v>
       </c>
@@ -5085,7 +5555,7 @@
         <v>6055200</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>146</v>
       </c>
@@ -5093,7 +5563,7 @@
         <v>6181640</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>147</v>
       </c>
@@ -5101,7 +5571,7 @@
         <v>6309828</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>148</v>
       </c>
@@ -5109,7 +5579,7 @@
         <v>6439776</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>149</v>
       </c>
@@ -5117,7 +5587,7 @@
         <v>6571496</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>150</v>
       </c>
@@ -5125,7 +5595,7 @@
         <v>6705000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>151</v>
       </c>
@@ -5133,7 +5603,7 @@
         <v>6840300</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>152</v>
       </c>
@@ -5141,7 +5611,7 @@
         <v>6977408</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>153</v>
       </c>
@@ -5149,7 +5619,7 @@
         <v>7116336</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>154</v>
       </c>
@@ -5157,7 +5627,7 @@
         <v>7257096</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>155</v>
       </c>
@@ -5165,7 +5635,7 @@
         <v>7399700</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>156</v>
       </c>
@@ -5173,7 +5643,7 @@
         <v>7544160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>157</v>
       </c>
@@ -5181,7 +5651,7 @@
         <v>7690488</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>158</v>
       </c>
@@ -5189,7 +5659,7 @@
         <v>7838696</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>159</v>
       </c>
@@ -5197,7 +5667,7 @@
         <v>7988796</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>160</v>
       </c>
@@ -5205,7 +5675,7 @@
         <v>8140800</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>161</v>
       </c>
@@ -5213,7 +5683,7 @@
         <v>8294720</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>162</v>
       </c>
@@ -5221,7 +5691,7 @@
         <v>8450568</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>163</v>
       </c>
@@ -5229,7 +5699,7 @@
         <v>8608356</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>164</v>
       </c>
@@ -5237,7 +5707,7 @@
         <v>8768096</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>165</v>
       </c>
@@ -5245,7 +5715,7 @@
         <v>8929800</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>166</v>
       </c>
@@ -5253,7 +5723,7 @@
         <v>9093480</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>167</v>
       </c>
@@ -5261,7 +5731,7 @@
         <v>9259148</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>168</v>
       </c>
@@ -5269,7 +5739,7 @@
         <v>9426816</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>169</v>
       </c>
@@ -5277,7 +5747,7 @@
         <v>9596496</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>170</v>
       </c>
@@ -5285,7 +5755,7 @@
         <v>9768200</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>171</v>
       </c>
@@ -5293,7 +5763,7 @@
         <v>9941940</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>172</v>
       </c>
@@ -5301,7 +5771,7 @@
         <v>10117728</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>173</v>
       </c>
@@ -5309,7 +5779,7 @@
         <v>10295576</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>174</v>
       </c>
@@ -5317,7 +5787,7 @@
         <v>10475496</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>175</v>
       </c>
@@ -5325,7 +5795,7 @@
         <v>10657500</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>176</v>
       </c>
@@ -5333,7 +5803,7 @@
         <v>10841600</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>177</v>
       </c>
@@ -5341,7 +5811,7 @@
         <v>11027808</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>178</v>
       </c>
@@ -5349,7 +5819,7 @@
         <v>11216136</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>179</v>
       </c>
@@ -5357,7 +5827,7 @@
         <v>11406596</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>180</v>
       </c>
@@ -5365,7 +5835,7 @@
         <v>11599200</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>181</v>
       </c>
@@ -5373,7 +5843,7 @@
         <v>11793960</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>182</v>
       </c>
@@ -5381,7 +5851,7 @@
         <v>11990888</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>183</v>
       </c>
@@ -5389,7 +5859,7 @@
         <v>12189996</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>184</v>
       </c>
@@ -5397,7 +5867,7 @@
         <v>12391296</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>185</v>
       </c>
@@ -5405,7 +5875,7 @@
         <v>12594800</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>186</v>
       </c>
@@ -5413,7 +5883,7 @@
         <v>12800520</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>187</v>
       </c>
@@ -5421,7 +5891,7 @@
         <v>13008468</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>188</v>
       </c>
@@ -5429,7 +5899,7 @@
         <v>13218656</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>189</v>
       </c>
@@ -5437,7 +5907,7 @@
         <v>13431096</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>190</v>
       </c>
@@ -5445,7 +5915,7 @@
         <v>13645800</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>191</v>
       </c>
@@ -5453,7 +5923,7 @@
         <v>13862780</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>192</v>
       </c>
@@ -5461,7 +5931,7 @@
         <v>14082048</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>193</v>
       </c>
@@ -5469,7 +5939,7 @@
         <v>14303616</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>194</v>
       </c>
@@ -5477,7 +5947,7 @@
         <v>14527496</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>195</v>
       </c>
@@ -5485,7 +5955,7 @@
         <v>14753700</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>196</v>
       </c>
@@ -5493,7 +5963,7 @@
         <v>14982240</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>197</v>
       </c>
@@ -5501,7 +5971,7 @@
         <v>15213128</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>198</v>
       </c>
@@ -5509,7 +5979,7 @@
         <v>15446376</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>199</v>
       </c>
@@ -5517,7 +5987,7 @@
         <v>15681996</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>200</v>
       </c>
